--- a/Dicts/th/ConvertOCRResult.xlsx
+++ b/Dicts/th/ConvertOCRResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.17.198.62\パッケージ\製品\02_VB.NET\01_scoreENTRY（海外版）\02_案件管理\201911_バージョンアップ_v3.2\40_辞書\02_Thai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyber\source\repos\DictionaryWeb\DictionaryServices\Dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B513B0B2-D0A9-4D5E-8FF4-7546A9DC4F1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBFB26E-6103-4BF1-8EDC-F520D16F4F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46710" yWindow="1800" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INCOME STATEMENT" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1234,7 +1234,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1261,7 +1261,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1314,7 +1314,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1323,10 +1323,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1367,28 +1363,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Normal" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="パーセント 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="12">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="パーセント 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="標準 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="標準 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="標準 2 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="標準 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="標準 4" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="標準 5" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="標準 6" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="標準 5" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="標準 6" xfId="6" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1404,7 +1399,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1726,1101 +1721,1101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="88.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" t="s">
         <v>116</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15">
       <c r="A7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15">
       <c r="A8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" ht="15">
       <c r="A18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" ht="15">
       <c r="A28" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" ht="15">
       <c r="A29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" ht="15">
       <c r="A30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" ht="15">
       <c r="A31" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" ht="15">
       <c r="A32" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" ht="15">
       <c r="A33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" ht="15">
       <c r="A37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" ht="15">
       <c r="A38" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" ht="15">
       <c r="A48" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" ht="15">
       <c r="A49" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" ht="15">
       <c r="A50" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" ht="15">
       <c r="A51" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" ht="15">
       <c r="A52" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" ht="15">
       <c r="A53" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1">
       <c r="A55" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1">
       <c r="A56" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1">
       <c r="A57" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" ht="15">
       <c r="A58" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" ht="15">
       <c r="A59" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1">
       <c r="A60" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1">
       <c r="A61" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1">
       <c r="A62" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1">
       <c r="A63" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1">
       <c r="A64" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1">
       <c r="A65" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1">
       <c r="A66" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1">
       <c r="A67" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1">
       <c r="A69" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1">
       <c r="A71" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1">
       <c r="A72" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1">
       <c r="A73" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1">
       <c r="A74" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" ht="15">
       <c r="A75" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" ht="15">
       <c r="A76" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" ht="15">
       <c r="A77" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" ht="15">
       <c r="A78" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" ht="15">
       <c r="A79" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" ht="15">
       <c r="A80" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" ht="15">
       <c r="A81" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" ht="15">
       <c r="A82" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" ht="15">
       <c r="A83" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" ht="15">
       <c r="A84" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" ht="15">
       <c r="A85" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" ht="15">
       <c r="A86" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" ht="15">
       <c r="A87" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" ht="15">
       <c r="A88" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" ht="15">
       <c r="A89" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1">
       <c r="A208" s="5"/>
     </row>
-    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" ht="15">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" ht="15">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" ht="15">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" ht="15">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" ht="15">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" ht="15">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" ht="15">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" ht="15">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" ht="15">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" ht="15">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" ht="15">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" ht="15">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" ht="15">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" ht="15">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" ht="15">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" ht="15">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" ht="15">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" ht="15">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" ht="15">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" ht="15">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" ht="15">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" ht="15">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" ht="15">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" ht="15">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" ht="15">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" ht="15">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" ht="15">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" ht="15">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" ht="15">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" ht="15">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" ht="15">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" ht="15">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" ht="15">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" ht="15">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" ht="15">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" ht="15">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" ht="15">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" ht="15">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" ht="15">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" ht="15">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" ht="15">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" ht="15">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" ht="15">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" ht="15">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" ht="15">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" ht="15">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" ht="15">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" ht="15">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" ht="15">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" ht="15">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" ht="15">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" ht="15">
       <c r="A264"/>
     </row>
-    <row r="265" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" ht="15">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" ht="15">
       <c r="A266"/>
     </row>
-    <row r="267" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" ht="15">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" ht="15">
       <c r="A268"/>
     </row>
-    <row r="269" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" ht="15">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" ht="15">
       <c r="A270"/>
     </row>
-    <row r="271" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" ht="15">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" ht="15">
       <c r="A272"/>
     </row>
-    <row r="273" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" ht="15">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" ht="15">
       <c r="A274"/>
     </row>
-    <row r="275" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" ht="15">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" ht="15">
       <c r="A276"/>
     </row>
-    <row r="277" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" ht="15">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" ht="15">
       <c r="A278"/>
     </row>
-    <row r="279" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" ht="15">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" ht="15">
       <c r="A280"/>
     </row>
-    <row r="281" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" ht="15">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" ht="15">
       <c r="A282"/>
     </row>
-    <row r="283" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" ht="15">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" ht="15">
       <c r="A284"/>
     </row>
-    <row r="285" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" ht="15">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" ht="15">
       <c r="A286"/>
     </row>
-    <row r="287" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" ht="15">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" ht="15">
       <c r="A288"/>
     </row>
-    <row r="289" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" ht="15">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" ht="15">
       <c r="A290"/>
     </row>
-    <row r="291" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" ht="15">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" ht="15">
       <c r="A292"/>
     </row>
-    <row r="293" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" ht="15">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" ht="15">
       <c r="A294"/>
     </row>
-    <row r="295" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" ht="15">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" ht="15">
       <c r="A296"/>
     </row>
-    <row r="297" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" ht="15">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" ht="15">
       <c r="A298"/>
     </row>
-    <row r="299" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" ht="15">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" ht="15">
       <c r="A300"/>
     </row>
-    <row r="301" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" ht="15">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1" ht="15">
       <c r="A302"/>
     </row>
-    <row r="303" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1" ht="15">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1" ht="15">
       <c r="A304"/>
     </row>
-    <row r="305" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" ht="15">
       <c r="A305"/>
     </row>
-    <row r="306" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1" ht="15">
       <c r="A306"/>
     </row>
-    <row r="307" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:1" ht="15">
       <c r="A307"/>
     </row>
   </sheetData>
@@ -2836,1505 +2831,1505 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="88.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" s="1" customFormat="1">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="1" customFormat="1">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" s="1" customFormat="1">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" s="1" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" s="1" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" s="1" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="1" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" s="1" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" s="1" customFormat="1">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" s="1" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="1" customFormat="1">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="1" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="1" customFormat="1">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="1" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" s="1" customFormat="1">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="1" customFormat="1">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="1" customFormat="1">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" s="1" customFormat="1">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" s="1" customFormat="1">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" s="1" customFormat="1">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="1" customFormat="1">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" s="1" customFormat="1">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="1" customFormat="1">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="1" customFormat="1">
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" s="1" customFormat="1">
       <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" s="1" customFormat="1">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" s="1" customFormat="1">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" s="1" customFormat="1">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" s="1" customFormat="1">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" s="1" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="1" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="1" customFormat="1">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="1" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="1" customFormat="1">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" s="1" customFormat="1">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" s="1" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" s="1" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" s="1" customFormat="1">
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" s="1" customFormat="1">
       <c r="A45" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" s="1" customFormat="1">
       <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" s="1" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" s="1" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" s="1" customFormat="1">
       <c r="A50" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="1" customFormat="1">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="1" customFormat="1">
       <c r="A52" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="1" customFormat="1">
       <c r="A53" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" s="1" customFormat="1">
       <c r="A54" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" s="1" customFormat="1">
       <c r="A55" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" s="1" customFormat="1">
       <c r="A56" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" s="6" t="s">
         <v>266</v>
       </c>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" s="6" t="s">
         <v>302</v>
       </c>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
         <v>310</v>
       </c>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" s="6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" s="6" t="s">
         <v>323</v>
       </c>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162" s="6" t="s">
         <v>327</v>
       </c>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168" s="6" t="s">
         <v>275</v>
       </c>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="446" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:1" ht="15">
       <c r="A446"/>
     </row>
-    <row r="447" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:1" ht="15">
       <c r="A447"/>
     </row>
-    <row r="448" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:1" ht="15">
       <c r="A448"/>
     </row>
-    <row r="449" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:1" ht="15">
       <c r="A449"/>
     </row>
-    <row r="450" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:1" ht="15">
       <c r="A450"/>
     </row>
-    <row r="451" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:1" ht="15">
       <c r="A451"/>
     </row>
-    <row r="452" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:1" ht="15">
       <c r="A452"/>
     </row>
-    <row r="453" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:1" ht="15">
       <c r="A453"/>
     </row>
-    <row r="454" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:1" ht="15">
       <c r="A454"/>
     </row>
-    <row r="455" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:1" ht="15">
       <c r="A455"/>
     </row>
-    <row r="456" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:1" ht="15">
       <c r="A456"/>
     </row>
-    <row r="457" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:1" ht="15">
       <c r="A457"/>
     </row>
-    <row r="458" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:1" ht="15">
       <c r="A458"/>
     </row>
-    <row r="459" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:1" ht="15">
       <c r="A459"/>
     </row>
-    <row r="460" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:1" ht="15">
       <c r="A460"/>
     </row>
-    <row r="461" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:1" ht="15">
       <c r="A461"/>
     </row>
-    <row r="462" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:1" ht="15">
       <c r="A462"/>
     </row>
-    <row r="463" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:1" ht="15">
       <c r="A463"/>
     </row>
-    <row r="464" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:1" ht="15">
       <c r="A464"/>
     </row>
-    <row r="465" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:1" ht="15">
       <c r="A465"/>
     </row>
-    <row r="466" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:1" ht="15">
       <c r="A466"/>
     </row>
-    <row r="467" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:1" ht="15">
       <c r="A467"/>
     </row>
-    <row r="468" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:1" ht="15">
       <c r="A468"/>
     </row>
-    <row r="469" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:1" ht="15">
       <c r="A469"/>
     </row>
-    <row r="470" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:1" ht="15">
       <c r="A470"/>
     </row>
-    <row r="471" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:1" ht="15">
       <c r="A471"/>
     </row>
-    <row r="472" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:1" ht="15">
       <c r="A472"/>
     </row>
-    <row r="473" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:1" ht="15">
       <c r="A473"/>
     </row>
-    <row r="474" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:1" ht="15">
       <c r="A474"/>
     </row>
-    <row r="475" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:1" ht="15">
       <c r="A475"/>
     </row>
-    <row r="476" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:1" ht="15">
       <c r="A476"/>
     </row>
-    <row r="477" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:1" ht="15">
       <c r="A477"/>
     </row>
-    <row r="478" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:1" ht="15">
       <c r="A478"/>
     </row>
-    <row r="479" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:1" ht="15">
       <c r="A479"/>
     </row>
-    <row r="480" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:1" ht="15">
       <c r="A480"/>
     </row>
-    <row r="481" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:1" ht="15">
       <c r="A481"/>
     </row>
-    <row r="482" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:1" ht="15">
       <c r="A482"/>
     </row>
-    <row r="483" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:1" ht="15">
       <c r="A483"/>
     </row>
-    <row r="484" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:1" ht="15">
       <c r="A484"/>
     </row>
-    <row r="485" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:1" ht="15">
       <c r="A485"/>
     </row>
-    <row r="486" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:1" ht="15">
       <c r="A486"/>
     </row>
-    <row r="487" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:1" ht="15">
       <c r="A487"/>
     </row>
-    <row r="488" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:1" ht="15">
       <c r="A488"/>
     </row>
-    <row r="489" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:1" ht="15">
       <c r="A489"/>
     </row>
-    <row r="490" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:1" ht="15">
       <c r="A490"/>
     </row>
-    <row r="491" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:1" ht="15">
       <c r="A491"/>
     </row>
-    <row r="492" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:1" ht="15">
       <c r="A492"/>
     </row>
-    <row r="493" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:1" ht="15">
       <c r="A493"/>
     </row>
-    <row r="494" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:1" ht="15">
       <c r="A494"/>
     </row>
-    <row r="495" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:1" ht="15">
       <c r="A495"/>
     </row>
-    <row r="496" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:1" ht="15">
       <c r="A496"/>
     </row>
-    <row r="497" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:1" ht="15">
       <c r="A497"/>
     </row>
-    <row r="498" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:1" ht="15">
       <c r="A498"/>
     </row>
-    <row r="499" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:1" ht="15">
       <c r="A499"/>
     </row>
-    <row r="500" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:1" ht="15">
       <c r="A500"/>
     </row>
-    <row r="501" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:1" ht="15">
       <c r="A501"/>
     </row>
-    <row r="502" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:1" ht="15">
       <c r="A502"/>
     </row>
-    <row r="503" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:1" ht="15">
       <c r="A503"/>
     </row>
-    <row r="504" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:1" ht="15">
       <c r="A504"/>
     </row>
-    <row r="505" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:1" ht="15">
       <c r="A505"/>
     </row>
-    <row r="506" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:1" ht="15">
       <c r="A506"/>
     </row>
-    <row r="507" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:1" ht="15">
       <c r="A507"/>
     </row>
-    <row r="508" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:1" ht="15">
       <c r="A508"/>
     </row>
-    <row r="509" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:1" ht="15">
       <c r="A509"/>
     </row>
-    <row r="510" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:1" ht="15">
       <c r="A510"/>
     </row>
-    <row r="511" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:1" ht="15">
       <c r="A511"/>
     </row>
-    <row r="512" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:1" ht="15">
       <c r="A512"/>
     </row>
-    <row r="513" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:1" ht="15">
       <c r="A513"/>
     </row>
-    <row r="514" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:1" ht="15">
       <c r="A514"/>
     </row>
-    <row r="515" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:1" ht="15">
       <c r="A515"/>
     </row>
-    <row r="516" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:1" ht="15">
       <c r="A516"/>
     </row>
-    <row r="517" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:1" ht="15">
       <c r="A517"/>
     </row>
-    <row r="518" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:1" ht="15">
       <c r="A518"/>
     </row>
-    <row r="519" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:1" ht="15">
       <c r="A519"/>
     </row>
-    <row r="520" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:1" ht="15">
       <c r="A520"/>
     </row>
-    <row r="521" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:1" ht="15">
       <c r="A521"/>
     </row>
-    <row r="522" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:1" ht="15">
       <c r="A522"/>
     </row>
-    <row r="523" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:1" ht="15">
       <c r="A523"/>
     </row>
-    <row r="524" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:1" ht="15">
       <c r="A524"/>
     </row>
-    <row r="525" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:1" ht="15">
       <c r="A525"/>
     </row>
-    <row r="526" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:1" ht="15">
       <c r="A526"/>
     </row>
-    <row r="527" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:1" ht="15">
       <c r="A527"/>
     </row>
-    <row r="528" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:1" ht="15">
       <c r="A528"/>
     </row>
-    <row r="529" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:1" ht="15">
       <c r="A529"/>
     </row>
-    <row r="530" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:1" ht="15">
       <c r="A530"/>
     </row>
-    <row r="531" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:1" ht="15">
       <c r="A531"/>
     </row>
-    <row r="532" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:1" ht="15">
       <c r="A532"/>
     </row>
-    <row r="533" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:1" ht="15">
       <c r="A533"/>
     </row>
-    <row r="534" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:1" ht="15">
       <c r="A534"/>
     </row>
-    <row r="535" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:1" ht="15">
       <c r="A535"/>
     </row>
-    <row r="536" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:1" ht="15">
       <c r="A536"/>
     </row>
-    <row r="537" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:1" ht="15">
       <c r="A537"/>
     </row>
-    <row r="538" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:1" ht="15">
       <c r="A538"/>
     </row>
-    <row r="539" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:1" ht="15">
       <c r="A539"/>
     </row>
-    <row r="540" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:1" ht="15">
       <c r="A540"/>
     </row>
-    <row r="541" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:1" ht="15">
       <c r="A541"/>
     </row>
-    <row r="542" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:1" ht="15">
       <c r="A542"/>
     </row>
-    <row r="543" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:1" ht="15">
       <c r="A543"/>
     </row>
-    <row r="544" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:1" ht="15">
       <c r="A544"/>
     </row>
-    <row r="545" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:1" ht="15">
       <c r="A545"/>
     </row>
-    <row r="546" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:1" ht="15">
       <c r="A546"/>
     </row>
-    <row r="547" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:1" ht="15">
       <c r="A547"/>
     </row>
-    <row r="548" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:1" ht="15">
       <c r="A548"/>
     </row>
-    <row r="549" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:1" ht="15">
       <c r="A549"/>
     </row>
-    <row r="550" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:1" ht="15">
       <c r="A550"/>
     </row>
-    <row r="551" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:1" ht="15">
       <c r="A551"/>
     </row>
-    <row r="552" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:1" ht="15">
       <c r="A552"/>
     </row>
-    <row r="553" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:1" ht="15">
       <c r="A553"/>
     </row>
-    <row r="554" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:1" ht="15">
       <c r="A554"/>
     </row>
-    <row r="555" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:1" ht="15">
       <c r="A555"/>
     </row>
-    <row r="556" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:1" ht="15">
       <c r="A556"/>
     </row>
-    <row r="557" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:1" ht="15">
       <c r="A557"/>
     </row>
-    <row r="558" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:1" ht="15">
       <c r="A558"/>
     </row>
-    <row r="559" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:1" ht="15">
       <c r="A559"/>
     </row>
-    <row r="560" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:1" ht="15">
       <c r="A560"/>
     </row>
-    <row r="561" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:1" ht="15">
       <c r="A561"/>
     </row>
-    <row r="562" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:1" ht="15">
       <c r="A562"/>
     </row>
-    <row r="563" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:1" ht="15">
       <c r="A563"/>
     </row>
-    <row r="564" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:1" ht="15">
       <c r="A564"/>
     </row>
-    <row r="565" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:1" ht="15">
       <c r="A565"/>
     </row>
-    <row r="566" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:1" ht="15">
       <c r="A566"/>
     </row>
-    <row r="567" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:1" ht="15">
       <c r="A567"/>
     </row>
-    <row r="568" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:1" ht="15">
       <c r="A568"/>
     </row>
-    <row r="569" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:1" ht="15">
       <c r="A569"/>
     </row>
-    <row r="570" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:1" ht="15">
       <c r="A570"/>
     </row>
-    <row r="571" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:1" ht="15">
       <c r="A571"/>
     </row>
-    <row r="572" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:1" ht="15">
       <c r="A572"/>
     </row>
-    <row r="573" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:1" ht="15">
       <c r="A573"/>
     </row>
-    <row r="574" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:1" ht="15">
       <c r="A574"/>
     </row>
-    <row r="575" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:1" ht="15">
       <c r="A575"/>
     </row>
-    <row r="576" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:1" ht="15">
       <c r="A576"/>
     </row>
-    <row r="577" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:1" ht="15">
       <c r="A577"/>
     </row>
-    <row r="578" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:1" ht="15">
       <c r="A578"/>
     </row>
-    <row r="579" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:1" ht="15">
       <c r="A579"/>
     </row>
-    <row r="580" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:1" ht="15">
       <c r="A580"/>
     </row>
-    <row r="581" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:1" ht="15">
       <c r="A581"/>
     </row>
-    <row r="582" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:1" ht="15">
       <c r="A582"/>
     </row>
-    <row r="583" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:1" ht="15">
       <c r="A583"/>
     </row>
-    <row r="584" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:1" ht="15">
       <c r="A584"/>
     </row>
-    <row r="585" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:1" ht="15">
       <c r="A585"/>
     </row>
-    <row r="586" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:1" ht="15">
       <c r="A586"/>
     </row>
-    <row r="587" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:1" ht="15">
       <c r="A587"/>
     </row>
-    <row r="588" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:1" ht="15">
       <c r="A588"/>
     </row>
-    <row r="589" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:1" ht="15">
       <c r="A589"/>
     </row>
-    <row r="590" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:1" ht="15">
       <c r="A590"/>
     </row>
-    <row r="591" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:1" ht="15">
       <c r="A591"/>
     </row>
-    <row r="592" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:1" ht="15">
       <c r="A592"/>
     </row>
-    <row r="593" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:1" ht="15">
       <c r="A593"/>
     </row>
-    <row r="594" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:1" ht="15">
       <c r="A594"/>
     </row>
-    <row r="595" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:1" ht="15">
       <c r="A595"/>
     </row>
-    <row r="596" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:1" ht="15">
       <c r="A596"/>
     </row>
-    <row r="597" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:1" ht="15">
       <c r="A597"/>
     </row>
-    <row r="598" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:1" ht="15">
       <c r="A598"/>
     </row>
-    <row r="599" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:1" ht="15">
       <c r="A599"/>
     </row>
-    <row r="600" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:1" ht="15">
       <c r="A600"/>
     </row>
-    <row r="601" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:1" ht="15">
       <c r="A601"/>
     </row>
-    <row r="602" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:1" ht="15">
       <c r="A602"/>
     </row>
-    <row r="603" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:1" ht="15">
       <c r="A603"/>
     </row>
-    <row r="604" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:1" ht="15">
       <c r="A604"/>
     </row>
-    <row r="605" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:1" ht="15">
       <c r="A605"/>
     </row>
-    <row r="606" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:1" ht="15">
       <c r="A606"/>
     </row>
-    <row r="607" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:1" ht="15">
       <c r="A607"/>
     </row>
-    <row r="608" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:1" ht="15">
       <c r="A608"/>
     </row>
-    <row r="609" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:1" ht="15">
       <c r="A609"/>
     </row>
-    <row r="610" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:1" ht="15">
       <c r="A610"/>
     </row>
-    <row r="611" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:1" ht="15">
       <c r="A611"/>
     </row>
-    <row r="612" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:1" ht="15">
       <c r="A612"/>
     </row>
-    <row r="613" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:1" ht="15">
       <c r="A613"/>
     </row>
-    <row r="614" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:1" ht="15">
       <c r="A614"/>
     </row>
-    <row r="615" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:1" ht="15">
       <c r="A615"/>
     </row>
-    <row r="616" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:1" ht="15">
       <c r="A616"/>
     </row>
-    <row r="617" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:1" ht="15">
       <c r="A617"/>
     </row>
-    <row r="618" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:1" ht="15">
       <c r="A618"/>
     </row>
-    <row r="619" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:1" ht="15">
       <c r="A619"/>
     </row>
-    <row r="620" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:1" ht="15">
       <c r="A620"/>
     </row>
-    <row r="621" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:1" ht="15">
       <c r="A621"/>
     </row>
-    <row r="622" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:1" ht="15">
       <c r="A622"/>
     </row>
-    <row r="623" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:1" ht="15">
       <c r="A623"/>
     </row>
-    <row r="624" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:1" ht="15">
       <c r="A624"/>
     </row>
-    <row r="625" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:1" ht="15">
       <c r="A625"/>
     </row>
-    <row r="626" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:1" ht="15">
       <c r="A626"/>
     </row>
-    <row r="627" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:1" ht="15">
       <c r="A627"/>
     </row>
-    <row r="628" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:1" ht="15">
       <c r="A628"/>
     </row>
-    <row r="629" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:1" ht="15">
       <c r="A629"/>
     </row>
-    <row r="630" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:1" ht="15">
       <c r="A630"/>
     </row>
-    <row r="631" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:1" ht="15">
       <c r="A631"/>
     </row>
-    <row r="632" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:1" ht="15">
       <c r="A632"/>
     </row>
-    <row r="633" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:1" ht="15">
       <c r="A633"/>
     </row>
   </sheetData>
@@ -4348,1439 +4343,1439 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A332"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="88.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1">
       <c r="A49" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1">
       <c r="A51" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1">
       <c r="A53" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1">
       <c r="A55" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1">
       <c r="A56" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1">
       <c r="A57" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1">
       <c r="A58" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1">
       <c r="A59" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1">
       <c r="A60" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1">
       <c r="A61" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1">
       <c r="A62" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1">
       <c r="A63" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1">
       <c r="A64" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1">
       <c r="A65" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1">
       <c r="A66" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1">
       <c r="A67" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1">
       <c r="A69" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1">
       <c r="A71" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1">
       <c r="A72" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1">
       <c r="A73" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1">
       <c r="A74" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1">
       <c r="A75" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1">
       <c r="A76" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1">
       <c r="A77" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1">
       <c r="A78" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1">
       <c r="A79" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1">
       <c r="A80" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1">
       <c r="A81" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1">
       <c r="A82" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1">
       <c r="A83" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1">
       <c r="A84" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1">
       <c r="A85" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1">
       <c r="A86" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1">
       <c r="A87" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1">
       <c r="A88" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1">
       <c r="A89" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1">
       <c r="A90" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1">
       <c r="A91" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1">
       <c r="A92" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1">
       <c r="A93" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1">
       <c r="A94" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1">
       <c r="A95" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1">
       <c r="A96" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1">
       <c r="A97" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1">
       <c r="A98" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1">
       <c r="A99" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1">
       <c r="A100" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1">
       <c r="A101" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1">
       <c r="A102" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1">
       <c r="A103" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1">
       <c r="A104" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1">
       <c r="A105" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1">
       <c r="A106" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1">
       <c r="A107" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1">
       <c r="A108" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1">
       <c r="A109" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1">
       <c r="A110" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1">
       <c r="A111" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1">
       <c r="A112" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1">
       <c r="A113" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1">
       <c r="A114" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1">
       <c r="A115" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1">
       <c r="A116" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1">
       <c r="A117" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1">
       <c r="A118" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1">
       <c r="A119" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1">
       <c r="A120" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1">
       <c r="A121" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1">
       <c r="A122" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1">
       <c r="A123" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1">
       <c r="A124" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1">
       <c r="A125" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1">
       <c r="A126" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1">
       <c r="A127" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1">
       <c r="A128" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1">
       <c r="A129" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1">
       <c r="A130" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1">
       <c r="A131" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1">
       <c r="A132" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1">
       <c r="A133" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1">
       <c r="A134" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1">
       <c r="A135" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1">
       <c r="A136" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1">
       <c r="A137" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1">
       <c r="A140" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1">
       <c r="A141" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1">
       <c r="A142" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1">
       <c r="A143" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1">
       <c r="A144" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1">
       <c r="A146" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1">
       <c r="A147" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1">
       <c r="A148" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1">
       <c r="A149" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1">
       <c r="A150" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1">
       <c r="A151" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1">
       <c r="A152" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1">
       <c r="A153" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1">
       <c r="A154" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1">
       <c r="A155" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1">
       <c r="A156" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1">
       <c r="A157" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1">
       <c r="A158" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1">
       <c r="A159" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1">
       <c r="A160" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1">
       <c r="A161" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1">
       <c r="A162" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1">
       <c r="A163" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1">
       <c r="A164" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1">
       <c r="A165" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1">
       <c r="A166" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1">
       <c r="A167" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1">
       <c r="A168" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1">
       <c r="A169" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1">
       <c r="A170" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1">
       <c r="A171" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" ht="15">
       <c r="A172" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" ht="15">
       <c r="A173" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" ht="15">
       <c r="A174" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" ht="15">
       <c r="A175" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" ht="15">
       <c r="A176" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" ht="15">
       <c r="A177" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" ht="15">
       <c r="A178" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" ht="15">
       <c r="A179" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" ht="15">
       <c r="A180" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" ht="15">
       <c r="A181" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" ht="15">
       <c r="A182" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" ht="15">
       <c r="A183" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" ht="15">
       <c r="A184" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" ht="15">
       <c r="A185" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" ht="15">
       <c r="A186" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" ht="15">
       <c r="A187" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" ht="15">
       <c r="A188" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" ht="15">
       <c r="A189" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" ht="15">
       <c r="A190" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" ht="15">
       <c r="A191" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" ht="15">
       <c r="A192" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" ht="15">
       <c r="A193" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" ht="15">
       <c r="A194" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" ht="15">
       <c r="A195" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" ht="15">
       <c r="A196" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" ht="15">
       <c r="A197" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" ht="15">
       <c r="A198" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" ht="15">
       <c r="A199" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" ht="15">
       <c r="A200" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" ht="15">
       <c r="A201" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" ht="15">
       <c r="A202" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" ht="15">
       <c r="A203" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" ht="15">
       <c r="A204" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" ht="15">
       <c r="A205" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" ht="15">
       <c r="A206" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" ht="15">
       <c r="A207" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" ht="15">
       <c r="A208" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" ht="15">
       <c r="A209" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" ht="15">
       <c r="A210" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" ht="15">
       <c r="A211" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" ht="15">
       <c r="A212" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" ht="15">
       <c r="A213" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" ht="15">
       <c r="A214" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" ht="15">
       <c r="A215" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" ht="15">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" ht="15">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" ht="15">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" ht="15">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" ht="15">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" ht="15">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" ht="15">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" ht="15">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" ht="15">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" ht="15">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" ht="15">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" ht="15">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" ht="15">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" ht="15">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" ht="15">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" ht="15">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" ht="15">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" ht="15">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" ht="15">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" ht="15">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" ht="15">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" ht="15">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" ht="15">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" ht="15">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" ht="15">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" ht="15">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" ht="15">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" ht="15">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" ht="15">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" ht="15">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" ht="15">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" ht="15">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" ht="15">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" ht="15">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" ht="15">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" ht="15">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" ht="15">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" ht="15">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" ht="15">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" ht="15">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" ht="15">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" ht="15">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" ht="15">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" ht="15">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" ht="15">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" ht="15">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" ht="15">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" ht="15">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" ht="15">
       <c r="A264"/>
     </row>
-    <row r="265" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" ht="15">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" ht="15">
       <c r="A266"/>
     </row>
-    <row r="267" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" ht="15">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" ht="15">
       <c r="A268"/>
     </row>
-    <row r="269" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" ht="15">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" ht="15">
       <c r="A270"/>
     </row>
-    <row r="271" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" ht="15">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" ht="15">
       <c r="A272"/>
     </row>
-    <row r="273" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" ht="15">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" ht="15">
       <c r="A274"/>
     </row>
-    <row r="275" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" ht="15">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" ht="15">
       <c r="A276"/>
     </row>
-    <row r="277" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" ht="15">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" ht="15">
       <c r="A278"/>
     </row>
-    <row r="279" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" ht="15">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" ht="15">
       <c r="A280"/>
     </row>
-    <row r="281" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" ht="15">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" ht="15">
       <c r="A282"/>
     </row>
-    <row r="283" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" ht="15">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" ht="15">
       <c r="A284"/>
     </row>
-    <row r="285" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" ht="15">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" ht="15">
       <c r="A286"/>
     </row>
-    <row r="287" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" ht="15">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" ht="15">
       <c r="A288"/>
     </row>
-    <row r="289" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" ht="15">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" ht="15">
       <c r="A290"/>
     </row>
-    <row r="291" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" ht="15">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" ht="15">
       <c r="A292"/>
     </row>
-    <row r="293" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" ht="15">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" ht="15">
       <c r="A294"/>
     </row>
-    <row r="295" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" ht="15">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" ht="15">
       <c r="A296"/>
     </row>
-    <row r="297" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" ht="15">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" ht="15">
       <c r="A298"/>
     </row>
-    <row r="299" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" ht="15">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" ht="15">
       <c r="A300"/>
     </row>
-    <row r="301" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" ht="15">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1" ht="15">
       <c r="A302"/>
     </row>
-    <row r="303" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1" ht="15">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1" ht="15">
       <c r="A304"/>
     </row>
-    <row r="305" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" ht="15">
       <c r="A305"/>
     </row>
-    <row r="306" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1" ht="15">
       <c r="A306"/>
     </row>
-    <row r="307" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:1" ht="15">
       <c r="A307"/>
     </row>
-    <row r="308" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:1" ht="15">
       <c r="A308"/>
     </row>
-    <row r="309" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:1" ht="15">
       <c r="A309"/>
     </row>
-    <row r="310" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1" ht="15">
       <c r="A310"/>
     </row>
-    <row r="311" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:1" ht="15">
       <c r="A311"/>
     </row>
-    <row r="312" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:1" ht="15">
       <c r="A312"/>
     </row>
-    <row r="313" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:1" ht="15">
       <c r="A313"/>
     </row>
-    <row r="314" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:1" ht="15">
       <c r="A314"/>
     </row>
-    <row r="315" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:1" ht="15">
       <c r="A315"/>
     </row>
-    <row r="316" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:1" ht="15">
       <c r="A316"/>
     </row>
-    <row r="317" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:1" ht="15">
       <c r="A317"/>
     </row>
-    <row r="318" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:1" ht="15">
       <c r="A318"/>
     </row>
-    <row r="319" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:1" ht="15">
       <c r="A319"/>
     </row>
-    <row r="320" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:1" ht="15">
       <c r="A320"/>
     </row>
-    <row r="321" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:1" ht="15">
       <c r="A321"/>
     </row>
-    <row r="322" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:1" ht="15">
       <c r="A322"/>
     </row>
-    <row r="323" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:1" ht="15">
       <c r="A323"/>
     </row>
-    <row r="324" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:1" ht="15">
       <c r="A324"/>
     </row>
-    <row r="325" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:1" ht="15">
       <c r="A325"/>
     </row>
-    <row r="326" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:1" ht="15">
       <c r="A326"/>
     </row>
-    <row r="327" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:1" ht="15">
       <c r="A327"/>
     </row>
-    <row r="328" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:1" ht="15">
       <c r="A328"/>
     </row>
-    <row r="329" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:1" ht="15">
       <c r="A329"/>
     </row>
-    <row r="330" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:1" ht="15">
       <c r="A330"/>
     </row>
-    <row r="331" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:1" ht="15">
       <c r="A331"/>
     </row>
-    <row r="332" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:1" ht="15">
       <c r="A332"/>
     </row>
   </sheetData>
